--- a/data/income_statement/2digits/size/33_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/33_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>33-Repair and installation of machinery and equipment</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>33-Repair and installation of machinery and equipment</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,833 +841,943 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>568361.95198</v>
+        <v>611342.2318600001</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>691899.8329100001</v>
+        <v>737036.3604599999</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>760294.62311</v>
+        <v>808310.15824</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>871287.4938000001</v>
+        <v>941475.34147</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1096656.65191</v>
+        <v>1207035.34257</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1182088.92964</v>
+        <v>1303118.2886</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1254906.5666</v>
+        <v>1414974.54253</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1374321.02107</v>
+        <v>1554070.67257</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>1490916.78388</v>
+        <v>1712333.98756</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>3712752.343189999</v>
+        <v>4012424.38368</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>4027631.18137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>4505415.37717</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>4838757.108</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>519207.98577</v>
+        <v>553144.78931</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>634193.05579</v>
+        <v>671030.2620499999</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>686049.5504600001</v>
+        <v>727934.19913</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>744563.71261</v>
+        <v>802758.20153</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>956397.99431</v>
+        <v>1057256.73919</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1091025.90361</v>
+        <v>1203433.78024</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1134649.48508</v>
+        <v>1278452.94802</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1271308.98117</v>
+        <v>1434397.42785</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>1381671.36128</v>
+        <v>1583532.21208</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>3400368.3417</v>
+        <v>3673033.56547</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>3589646.60552</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>3985338.37386</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>4362432.912</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>37440.19987</v>
+        <v>44574.50761</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>43403.49718</v>
+        <v>49667.06139</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>50499.95623</v>
+        <v>55234.49527</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>110279.64374</v>
+        <v>116962.20718</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>123224.37777</v>
+        <v>130209.19098</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>70176.95228999999</v>
+        <v>74971.78259999999</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>98417.89075000001</v>
+        <v>108393.3557</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>77060.31716999999</v>
+        <v>87755.47117</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>87053.82754</v>
+        <v>100122.39903</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>249695.53265</v>
+        <v>268132.12969</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>370114.8777</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>435722.86128</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>395069.391</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>11713.76634</v>
+        <v>13622.93494</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>14303.27994</v>
+        <v>16339.03702</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>23745.11642</v>
+        <v>25141.46384</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>16444.13745</v>
+        <v>21754.93276</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>17034.27983</v>
+        <v>19569.4124</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>20886.07374</v>
+        <v>24712.72576</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>21839.19077</v>
+        <v>28128.23881</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>25951.72273</v>
+        <v>31917.77355</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>22191.59506</v>
+        <v>28679.37645</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>62688.46883999999</v>
+        <v>71258.68852000001</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>67869.69815000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>84354.14203</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>81254.80499999999</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>4259.90537</v>
+        <v>4538.27151</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>5035.95109</v>
+        <v>6157.12566</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>6683.875849999999</v>
+        <v>7039.96787</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>5693.22605</v>
+        <v>6759.98657</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>5544.15525</v>
+        <v>6883.87197</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>8015.433140000001</v>
+        <v>9950.019190000001</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>7188.7606</v>
+        <v>12213.74463</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>6622.29896</v>
+        <v>7911.702</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>10308.82048</v>
+        <v>11284.61313</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>21026.80376</v>
+        <v>25862.29059</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>25673.55437</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>32338.59524</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>73333.433</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>3419.21223</v>
+        <v>3672.46543</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>4163.52406</v>
+        <v>5238.44921</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>5997.94753</v>
+        <v>6306.28091</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>4056.57124</v>
+        <v>4932.475060000001</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>4772.88665</v>
+        <v>5302.535150000001</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>6235.82139</v>
+        <v>8093.547619999999</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>5822.27703</v>
+        <v>10602.36099</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>4286.34159</v>
+        <v>5449.75337</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>6095.6703</v>
+        <v>6948.943240000001</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>17656.23931</v>
+        <v>20343.64746</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>22656.73949</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>27236.27424</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>68323.427</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>748.96286</v>
+        <v>769.12135</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>728.68519</v>
+        <v>764.36875</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>530.0823800000001</v>
+        <v>556.3300700000001</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>1349.6798</v>
+        <v>1536.565</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>676.17876</v>
+        <v>837.8044299999999</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>1267.34704</v>
+        <v>1322.36119</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>1083.49058</v>
+        <v>1256.21914</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>1447.48326</v>
+        <v>1533.94632</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>415.7674699999999</v>
+        <v>496.01773</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>1989.07363</v>
+        <v>4078.09187</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>2092.11411</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>2575.84112</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>3398.789</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>91.73027999999999</v>
+        <v>96.68473000000002</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>143.74184</v>
+        <v>154.3077</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>155.84594</v>
+        <v>177.35689</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>286.97501</v>
+        <v>290.94651</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>95.08984</v>
+        <v>743.53239</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>512.26471</v>
+        <v>534.11038</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>282.99299</v>
+        <v>355.1645</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>888.4741100000001</v>
+        <v>928.0023100000001</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>3797.38271</v>
+        <v>3839.65216</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>1381.49082</v>
+        <v>1440.55126</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>924.70077</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>2526.47988</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>1611.217</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>564102.04661</v>
+        <v>606803.96035</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>686863.88182</v>
+        <v>730879.2348</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>753610.74726</v>
+        <v>801270.19037</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>865594.26775</v>
+        <v>934715.3548999999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1091112.49666</v>
+        <v>1200151.4706</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>1174073.4965</v>
+        <v>1293168.26941</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1247717.806</v>
+        <v>1402760.7979</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1367698.72211</v>
+        <v>1546158.97057</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>1480607.9634</v>
+        <v>1701049.37443</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>3691725.53943</v>
+        <v>3986562.09309</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>4001957.627</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>4473076.781930001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>4765423.675</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>424576.41168</v>
+        <v>454684.78938</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>526275.54885</v>
+        <v>556347.9323000001</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>571147.3844</v>
+        <v>603169.45812</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>673136.1050099999</v>
+        <v>722195.54137</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>842750.65525</v>
+        <v>922031.5891399999</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>897406.32904</v>
+        <v>981486.50559</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>943524.02747</v>
+        <v>1051123.96212</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>1033546.93568</v>
+        <v>1159323.18985</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>1116971.88959</v>
+        <v>1276267.96257</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>2867548.16061</v>
+        <v>3084475.28984</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>3083889.54401</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>3440475.48687</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>3715669.192</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>68433.89104999999</v>
+        <v>76504.3216</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>82476.90366</v>
+        <v>89188.01078</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>89706.50818999999</v>
+        <v>96024.91498</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>95084.07114</v>
+        <v>104163.12523</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>111795.02199</v>
+        <v>128606.17369</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>133735.85348</v>
+        <v>152491.91209</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>142112.88608</v>
+        <v>163562.14485</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>151499.33298</v>
+        <v>176080.72736</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>160115.75454</v>
+        <v>196164.09934</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>503046.54801</v>
+        <v>545917.66836</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>515398.0927</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>586082.84019</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>631048.85</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>241941.89002</v>
+        <v>255220.76588</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>305521.72216</v>
+        <v>317053.6251</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>319679.1222</v>
+        <v>334428.56629</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>391771.88946</v>
+        <v>415988.6749700001</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>456795.87801</v>
+        <v>495454.79722</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>504314.34949</v>
+        <v>544588.92213</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>543732.25153</v>
+        <v>595302.6661799999</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>572245.0227000001</v>
+        <v>628758.37113</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>610005.9104500001</v>
+        <v>673898.78299</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1598937.09038</v>
+        <v>1710528.74122</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1737339.86064</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1906364.18284</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>2094459.8</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>113329.8374</v>
+        <v>121790.64181</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>136143.95729</v>
+        <v>147746.96131</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>160666.78719</v>
+        <v>171590.14706</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>184599.54896</v>
+        <v>200211.31653</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>271679.7411699999</v>
+        <v>295311.0352</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>245477.24986</v>
+        <v>270181.1559</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>252991.22141</v>
+        <v>286696.31352</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>302603.82061</v>
+        <v>345757.0001</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>341426.26584</v>
+        <v>399470.42251</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>747160.60963</v>
+        <v>806126.2111800001</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>814993.93731</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>924971.92174</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>964430.211</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>870.7932099999999</v>
+        <v>1169.06009</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>2132.96574</v>
+        <v>2359.33511</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>1094.96682</v>
+        <v>1125.82979</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>1680.59545</v>
+        <v>1832.42464</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>2480.01408</v>
+        <v>2659.58303</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>13878.87621</v>
+        <v>14224.51547</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>4687.668449999999</v>
+        <v>5562.837570000001</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>7198.75939</v>
+        <v>8727.091259999999</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>5423.95876</v>
+        <v>6734.657730000001</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>18403.91259</v>
+        <v>21902.66908</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>16157.65336</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>23056.5421</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>25730.331</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>139525.63493</v>
+        <v>152119.17097</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>160588.33297</v>
+        <v>174531.3025</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>182463.36286</v>
+        <v>198100.73225</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>192458.16274</v>
+        <v>212519.81353</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>248361.84141</v>
+        <v>278119.8814600001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>276667.16746</v>
+        <v>311681.76382</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>304193.77853</v>
+        <v>351636.83578</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>334151.78643</v>
+        <v>386835.78072</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>363636.07381</v>
+        <v>424781.41186</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>824177.37882</v>
+        <v>902086.80325</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>918068.08299</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1032601.29506</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1049754.483</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>115223.33088</v>
+        <v>129945.30337</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>130971.43981</v>
+        <v>153133.45343</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>150715.96287</v>
+        <v>170476.1272</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>165778.96986</v>
+        <v>196417.89381</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>209089.92621</v>
+        <v>243507.18183</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>225877.26482</v>
+        <v>264046.39749</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>239912.54794</v>
+        <v>287602.3879</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>277092.35372</v>
+        <v>330374.24073</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>291190.62362</v>
+        <v>358354.07946</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>598980.2259900001</v>
+        <v>678601.5742</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>678096.5315599999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>787801.07096</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>787972.202</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>805.83146</v>
+        <v>818.12779</v>
       </c>
       <c r="D21" s="48" t="n">
         <v>1232.35939</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>927.3404</v>
+        <v>936.2261500000001</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>652.3237800000001</v>
+        <v>653.80723</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>530.5438399999999</v>
+        <v>561.22474</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>1041.75638</v>
+        <v>1097.28886</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>1573.8775</v>
+        <v>1678.50194</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>1201.63526</v>
+        <v>1427.50032</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>1460.27797</v>
+        <v>1460.82554</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>3287.45685</v>
+        <v>3319.28584</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>1836.31974</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>2622.9745</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>2939.645</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>14763.95127</v>
+        <v>17319.80737</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>16928.07266</v>
+        <v>20183.68173</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>19379.89598</v>
+        <v>22662.40071</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>25934.23539</v>
+        <v>29514.08383</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>31536.44451</v>
+        <v>36232.64013</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>33611.01518</v>
+        <v>39364.75408</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>36298.09309999999</v>
+        <v>43311.07966</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>40051.49243</v>
+        <v>48860.47914</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>40531.97922</v>
+        <v>51268.11739</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>97960.18218999999</v>
+        <v>112159.09451</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>109208.77747</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>124981.21255</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>123393.719</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>99653.54815</v>
+        <v>111807.36821</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>112811.00776</v>
+        <v>131717.41231</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>130408.72649</v>
+        <v>146877.50034</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>139192.41069</v>
+        <v>166250.00275</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>177022.93786</v>
+        <v>206713.31696</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>191224.49326</v>
+        <v>223584.35455</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>202040.57734</v>
+        <v>242612.8063</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>235839.22603</v>
+        <v>280086.26127</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>249198.36643</v>
+        <v>305625.13653</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>497732.58695</v>
+        <v>563123.19385</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>567051.4343499999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>660196.8839100001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>661638.838</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>24302.30405</v>
+        <v>22173.8676</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>29616.89316</v>
+        <v>21397.84907</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>31747.39999</v>
+        <v>27624.60505</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>26679.19288</v>
+        <v>16101.91972</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>39271.9152</v>
+        <v>34612.69963</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>50789.90264</v>
+        <v>47635.36633</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>64281.23059000001</v>
+        <v>64034.44788</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>57059.43271</v>
+        <v>56461.53999</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>72445.45019</v>
+        <v>66427.3324</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>225197.15283</v>
+        <v>223485.22905</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>239971.55143</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>244800.2241</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>261782.281</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>5648.88991</v>
+        <v>26929.3761</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>5951.248930000001</v>
+        <v>25238.92735</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>8678.976339999999</v>
+        <v>27303.83516</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>7849.41227</v>
+        <v>32391.43613</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>9816.694210000001</v>
+        <v>23198.63627</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>8166.63672</v>
+        <v>40487.42047</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>11028.95847</v>
+        <v>73677.84024999999</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>11667.94113</v>
+        <v>59963.06922</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>14704.27421</v>
+        <v>89793.61532</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>103174.95665</v>
+        <v>311340.81403</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>49262.80186</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>133232.28222</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>204082.666</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>52.89166</v>
@@ -1778,34 +1789,39 @@
         <v>0.11858</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>2</v>
+        <v>7431.69119</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>12.936</v>
+        <v>240.93209</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>78.0913</v>
+        <v>13904.53339</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>0</v>
+        <v>9406.946209999998</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>10.96024</v>
+        <v>1089.10481</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>37.34464</v>
+        <v>6231.895989999999</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>105.86194</v>
+        <v>3075.24924</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>370.69744</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>3371.94356</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>2848.803</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>3.7215</v>
@@ -1817,10 +1833,10 @@
         <v>58.23736</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>43.81927</v>
+        <v>933.22717</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>0.15441</v>
+        <v>2784.00915</v>
       </c>
       <c r="H27" s="48" t="n">
         <v>0</v>
@@ -1832,97 +1848,112 @@
         <v>0</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>35.92</v>
+        <v>3370.80822</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>0.0353</v>
+        <v>13616.55225</v>
       </c>
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>4117.897</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>777.9976800000001</v>
+        <v>1030.53082</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>799.9094200000001</v>
+        <v>1364.71696</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>809.5065999999999</v>
+        <v>1164.64455</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>946.4657099999999</v>
+        <v>2168.58385</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>915.5119199999999</v>
+        <v>2444.36293</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>1464.4932</v>
+        <v>2530.31504</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>1083.91791</v>
+        <v>3114.14564</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>1023.37052</v>
+        <v>3290.43827</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>1274.71245</v>
+        <v>4657.54497</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>5616.640179999999</v>
+        <v>8504.87269</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>7868.63559</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>14079.93553</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>10378.924</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>723.6577600000001</v>
+        <v>921.5544200000001</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>1109.1575</v>
+        <v>4716.03013</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>1129.70593</v>
+        <v>3627.99278</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>488.3916600000001</v>
+        <v>491.11975</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>302.09857</v>
+        <v>316.23057</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>839.95298</v>
+        <v>990.4418699999999</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>575.14883</v>
+        <v>735.1488300000001</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>768.5365899999999</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>642.0583800000001</v>
+        <v>5195.66072</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>1669.45881</v>
+        <v>1670.16978</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>1262.7349</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>3933.6397</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>3420.665</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>150.20229</v>
@@ -1931,115 +1962,130 @@
         <v>203.66605</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>121.08339</v>
+        <v>160.82852</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>139.32042</v>
+        <v>193.39598</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>226.94083</v>
+        <v>228.34083</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>110.8236</v>
+        <v>449.05524</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>380.25958</v>
+        <v>390.46458</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>164.83445</v>
+        <v>208.5086</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>1037.94914</v>
+        <v>2861.99891</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>932.37216</v>
+        <v>951.78354</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>354.05775</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>1017.04716</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>888.924</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>62.12956</v>
+        <v>82.62757999999999</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>49.67618</v>
+        <v>73.66701</v>
       </c>
       <c r="E31" s="48" t="n">
         <v>53.09582</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>52.40253</v>
+        <v>93.15470000000001</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>281.95926</v>
+        <v>284.99681</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>39.68099</v>
+        <v>51.78006</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>47.13393</v>
+        <v>62.36509</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>78.03129000000001</v>
+        <v>111.25821</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>136.15052</v>
+        <v>175.11945</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>304.60138</v>
+        <v>17260.79364</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>587.93931</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>730.7993299999999</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>1459.136</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>2634.22765</v>
+        <v>22612.61922</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>2496.19457</v>
+        <v>15528.70433</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>5165.53361</v>
+        <v>19919.81125</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>4029.86606</v>
+        <v>16552.50489</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>6138.83859</v>
+        <v>13600.40877</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>3777.02783</v>
+        <v>13775.78707</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>6476.05637</v>
+        <v>52493.02719</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>7492.10258</v>
+        <v>48522.60764</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>8201.843719999999</v>
+        <v>61454.56851</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>88116.71613</v>
+        <v>251287.35998</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>28995.86805</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>97707.66608000001</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>163596.301</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>7.94438</v>
@@ -2048,7 +2094,7 @@
         <v>5.959989999999999</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>19.08291</v>
+        <v>300.42768</v>
       </c>
       <c r="F33" s="48" t="n">
         <v>9.817309999999999</v>
@@ -2057,7 +2103,7 @@
         <v>21.29245</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>3.02482</v>
+        <v>150.91608</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>6.36824</v>
@@ -2066,7 +2112,7 @@
         <v>16.77811</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>0</v>
+        <v>13.255</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>54.99721</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>42.10931</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>98.08799999999999</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>2.45425</v>
@@ -2090,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>21.73531</v>
+        <v>24.24566</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>25.2915</v>
+        <v>32.53986</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>20.36488</v>
+        <v>5501.00849</v>
       </c>
       <c r="I34" s="48" t="n">
         <v>0.5154099999999999</v>
@@ -2105,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>0</v>
+        <v>0.70648</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>0</v>
@@ -2113,248 +2164,283 @@
       <c r="M34" s="48" t="n">
         <v>11.82139</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>96.273</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>1233.66318</v>
+        <v>2064.82998</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>1284.83629</v>
+        <v>3344.33395</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>1322.61214</v>
+        <v>2018.67862</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>2115.594</v>
+        <v>4493.69563</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>1891.67068</v>
+        <v>3245.52281</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>1833.17712</v>
+        <v>3133.58323</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>2459.5582</v>
+        <v>7468.85906</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>2113.32735</v>
+        <v>5955.83699</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>3338.29536</v>
+        <v>5832.057069999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>6374.273539999999</v>
+        <v>14919.0357</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>9768.938119999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>12337.32016</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>17177.655</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>5086.46573</v>
+        <v>24550.88254</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>3761.7539</v>
+        <v>18382.41429</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>8901.953120000002</v>
+        <v>14773.5789</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>5827.75795</v>
+        <v>44523.61992</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>7390.25905</v>
+        <v>44065.32041</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>18062.47385</v>
+        <v>29927.13966</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>9235.813960000001</v>
+        <v>77056.96314000001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>8270.138359999999</v>
+        <v>71730.18233</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>10371.35401</v>
+        <v>93404.17843</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>82682.42949000001</v>
+        <v>331454.40181</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>34001.72255</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>153168.10408</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>233218.033</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>222.95438</v>
+        <v>325.1965300000001</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>278.10808</v>
+        <v>420.37049</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>421.7363</v>
+        <v>512.44371</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>299.22179</v>
+        <v>300.1871599999999</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>190.65935</v>
+        <v>196.89964</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>241.75039</v>
+        <v>248.07241</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>321.75846</v>
+        <v>432.44777</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>509.8387099999999</v>
+        <v>808.22684</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>189.69321</v>
+        <v>212.52814</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>578.9399000000001</v>
+        <v>606.0681099999999</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>835.25603</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>866.8064499999999</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>865.865</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>886.40682</v>
+        <v>1286.10682</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>326.2946</v>
+        <v>499.11553</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>457.45978</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>1110.58095</v>
+        <v>31642.29648</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>589.7658100000001</v>
+        <v>821.5230600000001</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>12717.36216</v>
+        <v>12736.81357</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>1115.80124</v>
+        <v>2450.06966</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>959.7375400000001</v>
+        <v>2070.16642</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>274.33518</v>
+        <v>1801.98045</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>2417.02929</v>
+        <v>2538.81924</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>3008.17176</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>3931.78843</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>2654.72</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>23.45866</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>13.57936</v>
+        <v>20.02459</v>
       </c>
       <c r="E39" s="48" t="n">
         <v>63.40926</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>14.37933</v>
+        <v>16.37085</v>
       </c>
       <c r="G39" s="48" t="n">
         <v>105.78465</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>28.47278</v>
+        <v>60.11446</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>12.83011</v>
+        <v>21.72909</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>6.72064</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>25.95449</v>
+        <v>26.36267</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>61.09499</v>
+        <v>805.4814</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>30.75741</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>31.0302</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>48.536</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>2757.99978</v>
+        <v>21549.87744</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>2476.07191</v>
+        <v>16405.93254</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>5401.91682</v>
+        <v>11143.77497</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>3154.55549</v>
+        <v>11117.66934</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>5335.21638</v>
+        <v>40931.16602</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>4017.04263</v>
+        <v>15315.49634</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>6361.61375</v>
+        <v>70003.01248999999</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>5851.11383</v>
+        <v>67617.72220999999</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>8287.816919999999</v>
+        <v>72690.43465</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>76884.54925</v>
+        <v>273002.46634</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>26305.34607</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>108598.28077</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>183897.328</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>24.76063</v>
+        <v>24.76112</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>24.52148</v>
@@ -2369,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>29.29261</v>
+        <v>143.36574</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>7.70185</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>54.62024</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>36.781</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>37.07587</v>
@@ -2402,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>94.27483000000001</v>
+        <v>102.94896</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>21.51418</v>
+        <v>34.65026</v>
       </c>
       <c r="H42" s="48" t="n">
         <v>1e-05</v>
@@ -2425,245 +2516,280 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>2.797</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>1133.80959</v>
+        <v>1304.4061</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>633.8587599999998</v>
+        <v>1003.12995</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>2532.41011</v>
+        <v>2571.47033</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>1146.22655</v>
+        <v>1335.62812</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>1147.31868</v>
+        <v>1975.29678</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>1028.55327</v>
+        <v>1423.27713</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1409.32628</v>
+        <v>4135.22001</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>937.08554</v>
+        <v>1221.70412</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>1590.47339</v>
+        <v>18669.7917</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>2684.92392</v>
+        <v>54445.67458</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>3767.57104</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>39685.57799000001</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>45712.006</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>5096.607369999999</v>
+        <v>8652.525530000001</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>3814.77153</v>
+        <v>7236.76008</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>4502.970520000001</v>
+        <v>13595.91551</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>5442.96953</v>
+        <v>14225.99247</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>6442.75733</v>
+        <v>12867.64991</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>7148.269880000001</v>
+        <v>16383.15932</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>7579.58023</v>
+        <v>17573.19075</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>8222.38394</v>
+        <v>15734.28366</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>8395.437460000001</v>
+        <v>18966.4005</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>29115.1933</v>
+        <v>44525.31190000001</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>32078.69295</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>47155.15348</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>52097.73</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>4636.97622</v>
+        <v>7500.57758</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>3614.9484</v>
+        <v>6828.57652</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>4328.68405</v>
+        <v>9397.272650000001</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>5211.57648</v>
+        <v>12985.97399</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>6198.55294</v>
+        <v>11595.15398</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>6906.88735</v>
+        <v>13809.67231</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>7146.68547</v>
+        <v>17113.98692</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>7882.52724</v>
+        <v>12574.34996</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>7982.577029999999</v>
+        <v>15840.43958</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>27690.18096</v>
+        <v>41639.45659</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>30890.01534</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>44396.46125</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>50610.127</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>459.63115</v>
+        <v>1151.94795</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>199.82313</v>
+        <v>408.18356</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>174.28647</v>
+        <v>4198.642859999999</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>231.39305</v>
+        <v>1240.01848</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>244.20439</v>
+        <v>1272.49593</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>241.38253</v>
+        <v>2573.48701</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>432.89476</v>
+        <v>459.20383</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>339.8567</v>
+        <v>3159.9337</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>412.8604300000001</v>
+        <v>3125.96092</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>1425.01234</v>
+        <v>2885.85531</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1188.67761</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>2758.69223</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>1487.603</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>19768.12086</v>
+        <v>15899.83563</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>27991.61666</v>
+        <v>21017.60205</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>27021.45269</v>
+        <v>26558.9458</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>23257.87767</v>
+        <v>-10256.25654</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>35255.59303</v>
+        <v>878.36558</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>33745.79563</v>
+        <v>41812.48782</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>58494.79487</v>
+        <v>43082.13423999999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>52234.85154</v>
+        <v>28960.14322</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>68382.93293000001</v>
+        <v>43850.36879</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>216574.48669</v>
+        <v>158846.32937</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>223153.93779</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>177709.24876</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>180549.184</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>3791.14288</v>
+        <v>7171.66876</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>4866.41213</v>
+        <v>8468.630869999999</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>4028.45147</v>
+        <v>5470.9695</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>6213.8377</v>
+        <v>9115.64597</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>7922.76986</v>
+        <v>9766.813599999999</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>17438.08141</v>
+        <v>21330.91765</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>7890.10575</v>
+        <v>21321.84318</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>8562.899099999999</v>
+        <v>26758.94835</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>10937.20712</v>
+        <v>15436.97914</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>22671.22707</v>
+        <v>40557.14984000001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>30738.55576</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>119170.9763</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>86741.11900000001</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>140.98398</v>
@@ -2672,346 +2798,389 @@
         <v>42.46528</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>62.69086</v>
+        <v>97.04236999999999</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>32.07419</v>
+        <v>73.32853</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>792.90784</v>
+        <v>797.14406</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>212.59013</v>
+        <v>221.62654</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>39.99821</v>
+        <v>115.96294</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>22.18364</v>
+        <v>368.81039</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>26.53252</v>
+        <v>91.91148</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>197.70707</v>
+        <v>8913.459280000001</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>98.22063</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>142.59674</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>275.709</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>3650.1589</v>
+        <v>7030.684780000001</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>4823.946849999999</v>
+        <v>8426.165590000001</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>3965.76061</v>
+        <v>5373.92713</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>6181.76351</v>
+        <v>9042.317439999999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>7129.86202</v>
+        <v>8969.669539999999</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>17225.49128</v>
+        <v>21109.29111</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>7850.10754</v>
+        <v>21205.88024</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>8540.715460000001</v>
+        <v>26390.13796</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>10910.6746</v>
+        <v>15345.06766</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>22473.52</v>
+        <v>31643.69056</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>30640.33513</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>119028.37956</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>86465.41</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>4790.76497</v>
+        <v>10649.29166</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>7578.48814</v>
+        <v>9589.64184</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>47286.27791</v>
+        <v>56649.80515000001</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>8200.59901</v>
+        <v>27797.70012</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>7932.9412</v>
+        <v>9726.809140000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>28186.85228</v>
+        <v>38755.92128</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>7779.31068</v>
+        <v>13805.17085</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>33991.48582</v>
+        <v>54180.56439</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>11662.1254</v>
+        <v>20856.2828</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>52795.03686</v>
+        <v>90622.85868</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>22997.506</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>54331.89825999999</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>86669.852</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>20.34358</v>
+        <v>303.01611</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>165.03289</v>
+        <v>443.29224</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>507.37466</v>
+        <v>763.1214</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>215.44187</v>
+        <v>1087.76112</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>251.7664</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>319.42001</v>
+        <v>2788.63386</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>246.45193</v>
+        <v>472.61975</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>111.99782</v>
+        <v>177.88627</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>170.78656</v>
+        <v>179.48592</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>175.42041</v>
+        <v>780.4435</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1315.51326</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>2141.82569</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>1743.01</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>236.44153</v>
+        <v>1067.10912</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>374.82266</v>
+        <v>608.5008999999999</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>588.47357</v>
+        <v>646.5063999999999</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>220.7563</v>
+        <v>5829.547949999999</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>356.17669</v>
+        <v>466.05598</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>327.39491</v>
+        <v>1562.32886</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>383.2430900000001</v>
+        <v>1179.73583</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>610.04857</v>
+        <v>843.42921</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>563.58073</v>
+        <v>819.0648100000001</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>1943.49477</v>
+        <v>3374.60374</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>459.84025</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>15604.88262</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>2083.068</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>4533.979859999999</v>
+        <v>9279.166429999999</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>7038.632590000001</v>
+        <v>8537.848699999999</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>46190.42968</v>
+        <v>55240.17735</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>7764.40084</v>
+        <v>20880.39105</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>7324.99811</v>
+        <v>9008.98676</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>27540.03736</v>
+        <v>34404.95856</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>7149.61566</v>
+        <v>12152.81527</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>33269.43943</v>
+        <v>53159.24891</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>10927.75811</v>
+        <v>19857.73207</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>50676.12168</v>
+        <v>86467.81143999999</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>21222.15249</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>36585.18995</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>82843.774</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>18768.49877</v>
+        <v>12422.21273</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>25279.54065</v>
+        <v>19896.59108</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-16236.37375</v>
+        <v>-24619.88985</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>21271.11636</v>
+        <v>-28938.31069</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>35245.42169</v>
+        <v>918.3700399999991</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>22997.02476</v>
+        <v>24387.48419</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>58605.58994000001</v>
+        <v>50598.80657</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>26806.26482</v>
+        <v>1538.52718</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>67658.01465000001</v>
+        <v>38431.06513</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>186450.6769</v>
+        <v>108780.62053</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>230894.98755</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>242548.3268</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>180620.451</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>6061.67265</v>
+        <v>6701.69971</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>7496.96272</v>
+        <v>8605.387789999999</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>8571.865709999998</v>
+        <v>9577.553199999998</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>8749.753259999999</v>
+        <v>9740.21513</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>11499.67418</v>
+        <v>13178.27087</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>13018.24702</v>
+        <v>15647.68908</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>15065.98832</v>
+        <v>18348.08173</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>15409.62456</v>
+        <v>18334.745</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>17253.5608</v>
+        <v>20545.67085</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>48882.44240000001</v>
+        <v>54069.04196</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>54010.97016</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>61652.71423000001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>69113.236</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>12706.82612</v>
+        <v>5720.513019999999</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>17782.57793</v>
+        <v>11291.20329</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-24808.23946</v>
+        <v>-34197.44304999999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>12521.3631</v>
+        <v>-38678.52582</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>23745.74751</v>
+        <v>-12259.90083</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>9978.77774</v>
+        <v>8739.795109999999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>43539.60162</v>
+        <v>32250.72484</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>11396.64026</v>
+        <v>-16796.21782</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>50404.45384999999</v>
+        <v>17885.39428</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>137568.2345</v>
+        <v>54711.57856999999</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>176884.01739</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>180895.61257</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>111507.215</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>2591</v>
+        <v>2745</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>2743</v>
+        <v>2926</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>2815</v>
+        <v>2989</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>2984</v>
+        <v>3216</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>3323</v>
+        <v>3608</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>3477</v>
+        <v>3802</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>3558</v>
+        <v>3963</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>3576</v>
+        <v>4056</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>3704</v>
+        <v>4247</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>4461</v>
+        <v>5257</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>4644</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>5683</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>6011</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>